--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="108" windowWidth="28032" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
@@ -321,6 +326,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -539,7 +547,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -581,7 +589,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,18 +836,18 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="74.875" customWidth="1"/>
-    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -865,7 +873,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -877,7 +885,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -889,7 +897,7 @@
       </c>
       <c r="D4" s="8"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -901,7 +909,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -913,7 +921,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -925,7 +933,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -937,7 +945,7 @@
       </c>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -949,19 +957,19 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
+    <row r="10" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -973,7 +981,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -985,7 +993,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -997,19 +1005,19 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
+    <row r="14" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1021,7 +1029,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1047,7 +1055,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1059,7 +1067,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1071,7 +1079,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -1083,70 +1091,70 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1164,7 +1172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1177,7 +1185,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="108" windowWidth="28032" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="6756"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -278,9 +274,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +302,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,7 +832,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -885,17 +881,17 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -933,65 +929,65 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1005,94 +1001,94 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="6756"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -832,7 +836,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -857,17 +861,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -917,17 +921,17 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -836,7 +836,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -873,17 +873,17 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="6756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="6756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="20170829" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,290 @@
   </si>
   <si>
     <t xml:space="preserve">最好做一个背景图 这样看起来丰富一点 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名要做唯一性检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门型维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号的代码删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般参数的顺序可以调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格的格式化规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除批量删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动编码，全部删除后从0开始。自动编码格式不以字母开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格支持小数点，同5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行内编辑，直接是配件代码、名称、规格型号、品牌、价格、备注。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要支持导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存出错后，可以直接修改。不要跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号分录第一行不能按照一般参数现实隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门型维护-标准配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门型维护-规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号和配件根据基础资料带出（可选？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要字典就好，不需要系数。系数按门型维护。代码自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价申请单</t>
+  </si>
+  <si>
+    <r>
+      <t>旋转门详情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>靠左对齐</t>
+    </r>
+  </si>
+  <si>
+    <t>这个平门的下拉菜单，需要按门型过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目输入框更长一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击编辑，然后保存后，会跳转到登录页面</t>
+  </si>
+  <si>
+    <t>组织机构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照组织机构+角色确定人员的上下级关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>待处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已处理</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单审批流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>转给工程师后流程并没有结束，这个工程量核算是需要需要他们技术部的领导审核的，他审核了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这个流程才算完。技术部领导的审核意见里面应该有两个按钮，建议外协和建议外包。如果点了这个按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>就需要把单子转给物资部填写外协报价和外包报价。</t>
+    </r>
+  </si>
+  <si>
+    <t>不要换行的label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价单加入附件后，销售员提交后，大区经理的【我的任务】里面没有</t>
+  </si>
+  <si>
+    <t>任务流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在报价单申请里面提交这个单子也不需要选择工程师，直接就可以提交了</t>
+  </si>
+  <si>
+    <t>用工程师的账号登录后，在我的任务里面也没有这项目</t>
+  </si>
+  <si>
+    <r>
+      <t>报价单导出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好像点了没反应</t>
+    </r>
+  </si>
+  <si>
+    <t>报价申请单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有没有必要 代码？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +463,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +488,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +548,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +642,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1168,14 +1549,375 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>16</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>17</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>19</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>20</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>21</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" ht="63.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>22</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26">
+        <v>24</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17244" windowHeight="6756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +451,22 @@
   </si>
   <si>
     <t>已改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHM-&gt;PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把类型区分下，PHM改成PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码没有意义留空放后面做备选字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,7 +543,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +565,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -656,9 +673,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
@@ -674,23 +688,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,7 +957,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -970,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1005,7 +1034,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1220,15 +1249,15 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="74.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="74.875" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1254,7 +1283,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1266,7 +1295,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1278,7 +1307,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1290,7 +1319,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1302,7 +1331,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1314,7 +1343,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1326,7 +1355,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1338,7 +1367,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1350,7 +1379,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1362,7 +1391,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1374,7 +1403,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1386,7 +1415,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1398,7 +1427,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1410,7 +1439,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1424,7 +1453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1436,7 +1465,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1448,7 +1477,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1460,7 +1489,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1488,54 +1517,54 @@
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1549,22 +1578,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="76.75" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1581,7 +1610,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1592,7 +1621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1603,7 +1632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1614,7 +1643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1625,7 +1654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1636,80 +1665,80 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+    <row r="8" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+    <row r="10" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
+    <row r="11" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="28"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1720,7 +1749,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1731,18 +1760,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1753,24 +1783,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="30" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1780,9 +1810,9 @@
       <c r="C17" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1792,9 +1822,9 @@
       <c r="C18" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1805,7 +1835,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1815,9 +1845,9 @@
       <c r="C20" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1828,7 +1858,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1838,33 +1868,33 @@
       <c r="C22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" ht="63.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="15">
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="33"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="25"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="26">
         <v>24</v>
       </c>
@@ -1874,40 +1904,62 @@
       <c r="C25" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="20"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="26" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="26"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="26"/>
     </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="20">
         <v>25</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="21" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="20">
+        <v>26</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="20">
+        <v>27</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1927,7 +1979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6750" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,6 +472,14 @@
   </si>
   <si>
     <t>代码没有意义留空放后面做备选字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价申请单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项中新增配件可选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,29 +710,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -956,8 +969,118 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1958340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9822180" y="3101340"/>
+          <a:ext cx="1356360" cy="579120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、导入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>、工作流</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -999,7 +1122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1249,15 +1372,15 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="74.875" customWidth="1"/>
-    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1283,7 +1406,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1295,7 +1418,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1307,7 +1430,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1319,7 +1442,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1331,7 +1454,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1343,7 +1466,7 @@
       </c>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1355,7 +1478,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1367,7 +1490,7 @@
       </c>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1379,7 +1502,7 @@
       </c>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1391,7 +1514,7 @@
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1403,7 +1526,7 @@
       </c>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1415,7 +1538,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1427,7 +1550,7 @@
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1439,7 +1562,7 @@
       </c>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -1453,7 +1576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -1465,7 +1588,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1477,7 +1600,7 @@
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -1489,7 +1612,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1517,54 +1640,54 @@
     <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1578,22 +1701,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="76.75" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1610,7 +1733,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -1621,7 +1744,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -1632,7 +1755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -1643,7 +1766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -1654,7 +1777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -1665,7 +1788,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>6</v>
       </c>
@@ -1680,7 +1803,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>7</v>
       </c>
@@ -1695,7 +1818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>8</v>
       </c>
@@ -1712,7 +1835,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>9</v>
       </c>
@@ -1726,19 +1849,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1749,7 +1872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1760,8 +1883,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -1770,9 +1893,9 @@
       <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1783,24 +1906,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+    <row r="16" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="28" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1812,7 +1935,7 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1824,7 +1947,7 @@
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1835,7 +1958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1847,7 +1970,7 @@
       </c>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1858,7 +1981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1870,19 +1993,19 @@
       </c>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+    <row r="23" spans="1:5" s="28" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -1894,40 +2017,40 @@
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="26">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="17" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>25</v>
       </c>
@@ -1939,7 +2062,7 @@
       </c>
       <c r="D28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>26</v>
       </c>
@@ -1950,7 +2073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>27</v>
       </c>
@@ -1959,6 +2082,17 @@
       </c>
       <c r="C30" s="17" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>28</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1970,6 +2104,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1979,7 +2114,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -192,10 +192,6 @@
   </si>
   <si>
     <t>门型维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>规格型号的代码删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -480,6 +476,10 @@
   </si>
   <si>
     <t>选项中新增配件可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格型号的代码删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,18 +572,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,53 +674,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -964,116 +949,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1958340</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9822180" y="3101340"/>
-          <a:ext cx="1356360" cy="579120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、导入</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、工作流</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1703,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1591,7 @@
     <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
@@ -1727,44 +1602,47 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
+    <row r="2" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
@@ -1774,7 +1652,7 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,315 +1663,323 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="20"/>
+      <c r="E7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="25" t="s">
+    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="25" t="s">
+      <c r="D10" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
-        <v>10</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="28" t="s">
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>16</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="C17" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="D17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16" t="s">
+      <c r="D18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="15">
-        <v>19</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>20</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
-        <v>20</v>
-      </c>
-      <c r="B21" s="16" t="s">
+      <c r="C21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C21" t="s">
-        <v>66</v>
-      </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" s="9" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>22</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" s="28" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>22</v>
-      </c>
-      <c r="B23" s="29" t="s">
+      <c r="C23" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>23</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
+        <v>24</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="17" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="32"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="26">
+        <v>25</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="32"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>25</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26">
         <v>26</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26">
+        <v>27</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>27</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26">
+        <v>28</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>28</v>
-      </c>
-      <c r="B31" s="21" t="s">
+      <c r="C31" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>89</v>
-      </c>
+      <c r="D31" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2104,7 +1990,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="12996" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
     <sheet name="20170829" sheetId="2" r:id="rId2"/>
     <sheet name="20170904" sheetId="3" r:id="rId3"/>
+    <sheet name="20170907" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>序号</t>
   </si>
@@ -209,7 +215,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -256,7 +262,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -290,7 +296,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -310,7 +316,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -358,7 +364,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -396,18 +402,71 @@
   <si>
     <t>新增的尺寸</t>
   </si>
+  <si>
+    <t>报价单</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增项目编号8位必填</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件、门型参数、表面处理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>门型编号选择后显示编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>列宽。搞成表格</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的任务</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办和已完成在一页显示</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入类型（旋转门标准配件 可选配件  平滑门标准配件   可选配件  边门旋转门可选配件  维保费用  运输费用 安装费用）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项等按行新增</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过配件类别来实现一些自动带入的功能</t>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>同7</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页行数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,163 +509,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10.5"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,194 +562,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -846,422 +597,155 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1283,7 +767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1321,7 +805,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,7 +843,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1414,7 +898,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1452,7 +936,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1753,364 +1237,363 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="74.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="45.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A2" s="23">
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="23">
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="23">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="22">
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="22">
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" s="21" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A7" s="26">
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A8" s="23">
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" s="21" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="26">
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>8</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="23">
+      <c r="D9" s="25"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A11" s="23">
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A12" s="23">
+      <c r="D11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:4">
-      <c r="A13" s="22">
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A14" s="23">
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A15" s="23">
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" s="21" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A16" s="26">
+      <c r="D15" s="22"/>
+    </row>
+    <row r="16" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
         <v>15</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A17" s="29">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A18" s="23">
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:4">
-      <c r="A19" s="29">
+      <c r="D18" s="22"/>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A20" s="23">
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:1">
-      <c r="A21" s="32">
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1"/>
-    <row r="23" ht="18" customHeight="1"/>
-    <row r="24" ht="18" customHeight="1"/>
-    <row r="25" ht="18" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1"/>
-    <row r="27" ht="18" customHeight="1"/>
-    <row r="28" ht="18" customHeight="1"/>
-    <row r="29" ht="18" customHeight="1"/>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="31" ht="18" customHeight="1"/>
-    <row r="32" ht="18" customHeight="1"/>
-    <row r="33" ht="18" customHeight="1"/>
-    <row r="34" ht="18" customHeight="1"/>
-    <row r="35" ht="18" customHeight="1"/>
-    <row r="36" ht="18" customHeight="1"/>
-    <row r="37" ht="18" customHeight="1"/>
-    <row r="38" ht="18" customHeight="1"/>
-    <row r="39" ht="18" customHeight="1"/>
-    <row r="40" ht="18" customHeight="1"/>
-    <row r="41" ht="18" customHeight="1"/>
-    <row r="42" ht="18" customHeight="1"/>
-    <row r="43" ht="18" customHeight="1"/>
-    <row r="44" ht="18" customHeight="1"/>
-    <row r="45" ht="18" customHeight="1"/>
-    <row r="46" ht="18" customHeight="1"/>
-    <row r="47" ht="18" customHeight="1"/>
-    <row r="48" ht="18" customHeight="1"/>
-    <row r="49" ht="18" customHeight="1"/>
-    <row r="50" ht="18" customHeight="1"/>
-    <row r="51" ht="18" customHeight="1"/>
-    <row r="52" ht="18" customHeight="1"/>
-    <row r="53" ht="18" customHeight="1"/>
-    <row r="54" ht="18" customHeight="1"/>
-    <row r="55" ht="18" customHeight="1"/>
-    <row r="56" ht="18" customHeight="1"/>
-    <row r="57" ht="18" customHeight="1"/>
-    <row r="58" ht="18" customHeight="1"/>
-    <row r="59" ht="18" customHeight="1"/>
-    <row r="60" ht="18" customHeight="1"/>
-    <row r="61" ht="18" customHeight="1"/>
-    <row r="62" ht="18" customHeight="1"/>
-    <row r="63" ht="18" customHeight="1"/>
-    <row r="64" ht="18" customHeight="1"/>
-    <row r="65" ht="18" customHeight="1"/>
-    <row r="66" ht="18" customHeight="1"/>
-    <row r="67" ht="18" customHeight="1"/>
-    <row r="68" ht="18" customHeight="1"/>
-    <row r="69" ht="18" customHeight="1"/>
-    <row r="70" ht="18" customHeight="1"/>
-    <row r="71" ht="18" customHeight="1"/>
-    <row r="72" ht="18" customHeight="1"/>
-    <row r="73" ht="18" customHeight="1"/>
-    <row r="74" ht="18" customHeight="1"/>
-    <row r="75" ht="18" customHeight="1"/>
-    <row r="76" ht="18" customHeight="1"/>
-    <row r="77" ht="18" customHeight="1"/>
-    <row r="78" ht="18" customHeight="1"/>
-    <row r="79" ht="18" customHeight="1"/>
-    <row r="80" ht="18" customHeight="1"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId2" display="http://localhost:8080/jeecg-kbb 去除jeecg"/>
+    <hyperlink ref="C9" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="76.775" customWidth="1"/>
-    <col min="4" max="4" width="9.88333333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.6" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,44 +1610,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:4">
-      <c r="A3" s="5">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:4">
-      <c r="A4" s="5">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2174,8 +1657,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2185,320 +1668,320 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:5">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:4">
-      <c r="A10" s="5">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:4">
-      <c r="A11" s="5">
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" s="3" customFormat="1" spans="1:4">
-      <c r="A12" s="5">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:4">
-      <c r="A13" s="5">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:4">
-      <c r="A14" s="5">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:4">
-      <c r="A15" s="5">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:5">
-      <c r="A16" s="5">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A17" s="5">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:4">
-      <c r="A18" s="5">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:4">
-      <c r="A19" s="5">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:4">
-      <c r="A20" s="5">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:4">
-      <c r="A21" s="5">
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="60" spans="1:4">
-      <c r="A23" s="5">
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:4">
-      <c r="A24" s="5">
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="10"/>
+      <c r="E25" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A28" s="19">
+      <c r="D27" s="16"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>25</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:4">
-      <c r="A29" s="19">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:4">
-      <c r="A30" s="19">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
         <v>27</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:4">
-      <c r="A31" s="19">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
         <v>28</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="5"/>
+      <c r="D31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2506,28 +1989,27 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="E25:E27"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2544,30 +2026,200 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+        <v>84</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>83</v>
+      <c r="B3" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="36"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <mergeCells count="1">
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="12996" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="12990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
     <sheet name="20170829" sheetId="2" r:id="rId2"/>
     <sheet name="20170904" sheetId="3" r:id="rId3"/>
     <sheet name="20170907" sheetId="4" r:id="rId4"/>
+    <sheet name="20171031" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>序号</t>
   </si>
@@ -215,7 +211,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -262,7 +258,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -296,7 +292,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -316,7 +312,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -364,7 +360,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -403,70 +399,99 @@
     <t>新增的尺寸</t>
   </si>
   <si>
-    <t>报价单</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>新增项目编号8位必填</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>导入</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>配件、门型参数、表面处理</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>门型编号选择后显示编号</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>列宽。搞成表格</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的任务</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>待办和已完成在一页显示</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>配件</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>加入类型（旋转门标准配件 可选配件  平滑门标准配件   可选配件  边门旋转门可选配件  维保费用  运输费用 安装费用）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>选项等按行新增</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通过配件类别来实现一些自动带入的功能</t>
   </si>
   <si>
-    <t>待确认</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>同7</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>每页行数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程新增【销管审核】节点</t>
+  </si>
+  <si>
+    <t>明细弹框大小</t>
+  </si>
+  <si>
+    <t>客户信息</t>
+  </si>
+  <si>
+    <t>代码自动生成，字段长度调整</t>
+  </si>
+  <si>
+    <t>总监制作报价单流程</t>
+  </si>
+  <si>
+    <t>分权编辑</t>
+  </si>
+  <si>
+    <t>用户列表</t>
+  </si>
+  <si>
+    <t>新添加一个用户，列表清单中无，但是搜索的话又得搜得到</t>
+  </si>
+  <si>
+    <t>旋转门配件不能带出</t>
+  </si>
+  <si>
+    <t>平滑门改为平门</t>
+  </si>
+  <si>
+    <t>配件自动保存</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,12 +505,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -509,41 +528,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -562,8 +696,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -597,71 +917,334 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
@@ -685,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -700,52 +1283,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFCC"/>
+      <color rgb="00FFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -767,7 +1372,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -805,7 +1410,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -843,7 +1448,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -898,7 +1503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:blip r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -936,7 +1541,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1237,417 +1842,418 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="74.88671875" customWidth="1"/>
-    <col min="4" max="4" width="45.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="74.8833333333333" customWidth="1"/>
+    <col min="4" max="4" width="45.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+    <row r="2" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+      <c r="D4" s="30"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:4">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:4">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="D7" s="33"/>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="22"/>
-    </row>
-    <row r="9" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:4">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+    <row r="17" ht="36.75" customHeight="1" spans="1:4">
+      <c r="A17" s="35">
         <v>16</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="22"/>
-    </row>
-    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" ht="36" customHeight="1" spans="1:4">
+      <c r="A19" s="35">
         <v>18</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
+      <c r="D20" s="30"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:1">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="18" customHeight="1"/>
+    <row r="23" ht="18" customHeight="1"/>
+    <row r="24" ht="18" customHeight="1"/>
+    <row r="25" ht="18" customHeight="1"/>
+    <row r="26" ht="18" customHeight="1"/>
+    <row r="27" ht="18" customHeight="1"/>
+    <row r="28" ht="18" customHeight="1"/>
+    <row r="29" ht="18" customHeight="1"/>
+    <row r="30" ht="18" customHeight="1"/>
+    <row r="31" ht="18" customHeight="1"/>
+    <row r="32" ht="18" customHeight="1"/>
+    <row r="33" ht="18" customHeight="1"/>
+    <row r="34" ht="18" customHeight="1"/>
+    <row r="35" ht="18" customHeight="1"/>
+    <row r="36" ht="18" customHeight="1"/>
+    <row r="37" ht="18" customHeight="1"/>
+    <row r="38" ht="18" customHeight="1"/>
+    <row r="39" ht="18" customHeight="1"/>
+    <row r="40" ht="18" customHeight="1"/>
+    <row r="41" ht="18" customHeight="1"/>
+    <row r="42" ht="18" customHeight="1"/>
+    <row r="43" ht="18" customHeight="1"/>
+    <row r="44" ht="18" customHeight="1"/>
+    <row r="45" ht="18" customHeight="1"/>
+    <row r="46" ht="18" customHeight="1"/>
+    <row r="47" ht="18" customHeight="1"/>
+    <row r="48" ht="18" customHeight="1"/>
+    <row r="49" ht="18" customHeight="1"/>
+    <row r="50" ht="18" customHeight="1"/>
+    <row r="51" ht="18" customHeight="1"/>
+    <row r="52" ht="18" customHeight="1"/>
+    <row r="53" ht="18" customHeight="1"/>
+    <row r="54" ht="18" customHeight="1"/>
+    <row r="55" ht="18" customHeight="1"/>
+    <row r="56" ht="18" customHeight="1"/>
+    <row r="57" ht="18" customHeight="1"/>
+    <row r="58" ht="18" customHeight="1"/>
+    <row r="59" ht="18" customHeight="1"/>
+    <row r="60" ht="18" customHeight="1"/>
+    <row r="61" ht="18" customHeight="1"/>
+    <row r="62" ht="18" customHeight="1"/>
+    <row r="63" ht="18" customHeight="1"/>
+    <row r="64" ht="18" customHeight="1"/>
+    <row r="65" ht="18" customHeight="1"/>
+    <row r="66" ht="18" customHeight="1"/>
+    <row r="67" ht="18" customHeight="1"/>
+    <row r="68" ht="18" customHeight="1"/>
+    <row r="69" ht="18" customHeight="1"/>
+    <row r="70" ht="18" customHeight="1"/>
+    <row r="71" ht="18" customHeight="1"/>
+    <row r="72" ht="18" customHeight="1"/>
+    <row r="73" ht="18" customHeight="1"/>
+    <row r="74" ht="18" customHeight="1"/>
+    <row r="75" ht="18" customHeight="1"/>
+    <row r="76" ht="18" customHeight="1"/>
+    <row r="77" ht="18" customHeight="1"/>
+    <row r="78" ht="18" customHeight="1"/>
+    <row r="79" ht="18" customHeight="1"/>
+    <row r="80" ht="18" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C9" r:id="rId2" display="http://localhost:8080/jeecg-kbb 去除jeecg"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="76.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="76.775" customWidth="1"/>
+    <col min="4" max="4" width="9.88333333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="21.6" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" s="4" customFormat="1" spans="1:4">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:4">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:4">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -1657,8 +2263,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -1668,320 +2274,320 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" s="4" customFormat="1" spans="1:5">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8" s="4" customFormat="1" spans="1:5">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="9" s="4" customFormat="1" spans="1:5">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="10" s="4" customFormat="1" spans="1:4">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" s="4" customFormat="1" spans="1:4">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" s="4" customFormat="1" spans="1:4">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:4">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:4">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" s="4" customFormat="1" spans="1:4">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:5">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" s="4" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" s="4" customFormat="1" spans="1:4">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" s="4" customFormat="1" spans="1:4">
+      <c r="A19" s="10">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" s="4" customFormat="1" spans="1:4">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" s="4" customFormat="1" spans="1:4">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" s="4" customFormat="1" ht="60" spans="1:4">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" s="4" customFormat="1" spans="1:4">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="31" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="15" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="15" t="s">
+      <c r="D26" s="24"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="17">
+      <c r="D27" s="24"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" s="4" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A28" s="25">
         <v>25</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17">
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" s="4" customFormat="1" spans="1:4">
+      <c r="A29" s="25">
         <v>26</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="17">
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" s="4" customFormat="1" spans="1:4">
+      <c r="A30" s="25">
         <v>27</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:4">
+      <c r="A31" s="25">
         <v>28</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1989,237 +2595,379 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="E25:E27"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" s="4" customFormat="1" spans="1:3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" s="4" customFormat="1" spans="1:3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88333333333333" style="5"/>
+    <col min="2" max="2" width="12.775" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="33" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33" t="s">
+      <c r="C3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="33" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="33" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
+    <row r="7" ht="27" spans="1:3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C7" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="34" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="35" t="s">
+      <c r="D11" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="36"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="13" s="4" customFormat="1" spans="1:3">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>95</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C8:C10"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -473,10 +473,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -494,7 +494,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF92D050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,6 +529,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -536,7 +573,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -550,22 +595,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,15 +611,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,8 +634,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,49 +650,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,6 +686,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,6 +704,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,138 +866,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -849,36 +879,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,44 +918,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,17 +959,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,6 +1006,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1023,10 +1023,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,16 +1035,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,119 +1053,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1178,40 +1178,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1220,16 +1223,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1241,34 +1244,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,251 +1866,251 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A2" s="29">
+    <row r="2" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="29">
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="29">
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="28">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="28">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A7" s="32">
+      <c r="D6" s="32"/>
+    </row>
+    <row r="7" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A8" s="29">
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="32">
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="33"/>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="29">
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A11" s="29">
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A12" s="29">
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="31"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:4">
-      <c r="A13" s="28">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A14" s="29">
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A15" s="29">
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" s="27" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A16" s="32">
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A17" s="35">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A18" s="29">
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
     </row>
     <row r="19" ht="36" customHeight="1" spans="1:4">
-      <c r="A19" s="35">
+      <c r="A19" s="36">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" s="4" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A20" s="29">
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:1">
-      <c r="A21" s="38">
+      <c r="A21" s="39">
         <v>20</v>
       </c>
     </row>
@@ -2194,7 +2197,7 @@
   <cols>
     <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="76.775" customWidth="1"/>
-    <col min="4" max="4" width="9.88333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.88333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.4416666666667" customWidth="1"/>
   </cols>
@@ -2216,44 +2219,44 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:4">
-      <c r="A2" s="10">
+    <row r="2" s="6" customFormat="1" spans="1:4">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" s="4" customFormat="1" spans="1:4">
-      <c r="A3" s="10">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" s="6" customFormat="1" spans="1:4">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="1:4">
-      <c r="A4" s="10">
+      <c r="D3" s="11"/>
+    </row>
+    <row r="4" s="6" customFormat="1" spans="1:4">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2264,7 +2267,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2274,320 +2277,320 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" spans="1:5">
-      <c r="A7" s="10">
+    <row r="7" s="6" customFormat="1" spans="1:5">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:5">
-      <c r="A8" s="10">
+    <row r="8" s="6" customFormat="1" spans="1:5">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:5">
-      <c r="A9" s="10">
+    <row r="9" s="6" customFormat="1" spans="1:5">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:4">
-      <c r="A10" s="10">
+    <row r="10" s="6" customFormat="1" spans="1:4">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" spans="1:4">
-      <c r="A11" s="10">
+    <row r="11" s="6" customFormat="1" spans="1:4">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:4">
-      <c r="A12" s="10">
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" s="6" customFormat="1" spans="1:4">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:4">
-      <c r="A13" s="10">
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:4">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:4">
-      <c r="A14" s="10">
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" s="6" customFormat="1" spans="1:4">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:4">
-      <c r="A15" s="10">
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" s="6" customFormat="1" spans="1:4">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:5">
-      <c r="A16" s="10">
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" s="6" customFormat="1" spans="1:5">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A17" s="10">
+    <row r="17" s="6" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:4">
-      <c r="A18" s="10">
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" s="6" customFormat="1" spans="1:4">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:4">
-      <c r="A19" s="10">
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" s="6" customFormat="1" spans="1:4">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:4">
-      <c r="A20" s="10">
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" s="6" customFormat="1" spans="1:4">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:4">
-      <c r="A21" s="10">
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" s="6" customFormat="1" spans="1:4">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" s="4" customFormat="1" ht="60" spans="1:4">
-      <c r="A23" s="10">
+      <c r="D22" s="18"/>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="60" spans="1:4">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:4">
-      <c r="A24" s="10">
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:4">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="5"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23" t="s">
+      <c r="A27" s="1"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A28" s="25">
+      <c r="D27" s="25"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A28" s="26">
         <v>25</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="14"/>
-    </row>
-    <row r="29" s="4" customFormat="1" spans="1:4">
-      <c r="A29" s="25">
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" s="6" customFormat="1" spans="1:4">
+      <c r="A29" s="26">
         <v>26</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" s="4" customFormat="1" spans="1:4">
-      <c r="A30" s="25">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" s="6" customFormat="1" spans="1:4">
+      <c r="A30" s="26">
         <v>27</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" s="4" customFormat="1" spans="1:4">
-      <c r="A31" s="25">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" s="6" customFormat="1" spans="1:4">
+      <c r="A31" s="26">
         <v>28</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2633,25 +2636,25 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:3">
-      <c r="A2" s="10">
+    <row r="2" s="6" customFormat="1" spans="1:3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:3">
-      <c r="A3" s="10">
+    <row r="3" s="6" customFormat="1" spans="1:3">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2672,7 +2675,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="5"/>
+    <col min="1" max="1" width="8.88333333333333" style="1"/>
     <col min="2" max="2" width="12.775" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
@@ -2695,130 +2698,130 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="5">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="5">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" spans="1:3">
-      <c r="A13" s="10">
+    <row r="13" s="6" customFormat="1" spans="1:3">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2838,7 +2841,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2917,7 +2920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2927,6 +2930,7 @@
       <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -2939,7 +2943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2949,6 +2953,7 @@
       <c r="C9" t="s">
         <v>105</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">

--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaCode\jeecg-kbb\jeecg-kbb\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12990" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="12996" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="20170814" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -211,7 +216,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -258,7 +263,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -292,7 +297,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -312,7 +317,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -360,7 +365,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -471,14 +476,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,156 +527,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -702,188 +571,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -917,255 +606,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,167 +643,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00FFFFCC"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1375,7 +785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1413,7 +823,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1451,7 +861,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1506,7 +916,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1544,7 +954,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1845,364 +1255,363 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="13.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="74.8833333333333" customWidth="1"/>
-    <col min="4" max="4" width="45.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="74.88671875" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A2" s="30">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="30">
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="30">
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="29">
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="32"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="29">
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="32"/>
-    </row>
-    <row r="7" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A7" s="33">
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A8" s="30">
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="31"/>
-    </row>
-    <row r="9" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="33">
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="30">
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A11" s="30">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="12" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A12" s="30">
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:4">
-      <c r="A13" s="29">
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="32"/>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A14" s="30">
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="31"/>
-    </row>
-    <row r="15" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A15" s="30">
+      <c r="D14" s="28"/>
+    </row>
+    <row r="15" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="31"/>
-    </row>
-    <row r="16" s="28" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A16" s="33">
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="36.75" customHeight="1" spans="1:4">
-      <c r="A17" s="36">
+    <row r="17" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A18" s="30">
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" ht="36" customHeight="1" spans="1:4">
-      <c r="A19" s="36">
+      <c r="D18" s="28"/>
+    </row>
+    <row r="19" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="32"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="18" customHeight="1" spans="1:4">
-      <c r="A20" s="30">
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:1">
-      <c r="A21" s="39">
+      <c r="D20" s="28"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36">
         <v>20</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1"/>
-    <row r="23" ht="18" customHeight="1"/>
-    <row r="24" ht="18" customHeight="1"/>
-    <row r="25" ht="18" customHeight="1"/>
-    <row r="26" ht="18" customHeight="1"/>
-    <row r="27" ht="18" customHeight="1"/>
-    <row r="28" ht="18" customHeight="1"/>
-    <row r="29" ht="18" customHeight="1"/>
-    <row r="30" ht="18" customHeight="1"/>
-    <row r="31" ht="18" customHeight="1"/>
-    <row r="32" ht="18" customHeight="1"/>
-    <row r="33" ht="18" customHeight="1"/>
-    <row r="34" ht="18" customHeight="1"/>
-    <row r="35" ht="18" customHeight="1"/>
-    <row r="36" ht="18" customHeight="1"/>
-    <row r="37" ht="18" customHeight="1"/>
-    <row r="38" ht="18" customHeight="1"/>
-    <row r="39" ht="18" customHeight="1"/>
-    <row r="40" ht="18" customHeight="1"/>
-    <row r="41" ht="18" customHeight="1"/>
-    <row r="42" ht="18" customHeight="1"/>
-    <row r="43" ht="18" customHeight="1"/>
-    <row r="44" ht="18" customHeight="1"/>
-    <row r="45" ht="18" customHeight="1"/>
-    <row r="46" ht="18" customHeight="1"/>
-    <row r="47" ht="18" customHeight="1"/>
-    <row r="48" ht="18" customHeight="1"/>
-    <row r="49" ht="18" customHeight="1"/>
-    <row r="50" ht="18" customHeight="1"/>
-    <row r="51" ht="18" customHeight="1"/>
-    <row r="52" ht="18" customHeight="1"/>
-    <row r="53" ht="18" customHeight="1"/>
-    <row r="54" ht="18" customHeight="1"/>
-    <row r="55" ht="18" customHeight="1"/>
-    <row r="56" ht="18" customHeight="1"/>
-    <row r="57" ht="18" customHeight="1"/>
-    <row r="58" ht="18" customHeight="1"/>
-    <row r="59" ht="18" customHeight="1"/>
-    <row r="60" ht="18" customHeight="1"/>
-    <row r="61" ht="18" customHeight="1"/>
-    <row r="62" ht="18" customHeight="1"/>
-    <row r="63" ht="18" customHeight="1"/>
-    <row r="64" ht="18" customHeight="1"/>
-    <row r="65" ht="18" customHeight="1"/>
-    <row r="66" ht="18" customHeight="1"/>
-    <row r="67" ht="18" customHeight="1"/>
-    <row r="68" ht="18" customHeight="1"/>
-    <row r="69" ht="18" customHeight="1"/>
-    <row r="70" ht="18" customHeight="1"/>
-    <row r="71" ht="18" customHeight="1"/>
-    <row r="72" ht="18" customHeight="1"/>
-    <row r="73" ht="18" customHeight="1"/>
-    <row r="74" ht="18" customHeight="1"/>
-    <row r="75" ht="18" customHeight="1"/>
-    <row r="76" ht="18" customHeight="1"/>
-    <row r="77" ht="18" customHeight="1"/>
-    <row r="78" ht="18" customHeight="1"/>
-    <row r="79" ht="18" customHeight="1"/>
-    <row r="80" ht="18" customHeight="1"/>
+    <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId2" display="http://localhost:8080/jeecg-kbb 去除jeecg"/>
+    <hyperlink ref="C9" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1083333333333" customWidth="1"/>
-    <col min="3" max="3" width="76.775" customWidth="1"/>
-    <col min="4" max="4" width="9.88333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.4416666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="76.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.6" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2219,8 +1628,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:4">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2229,10 +1638,10 @@
       <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:4">
-      <c r="A3" s="11">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2241,10 +1650,10 @@
       <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:4">
-      <c r="A4" s="11">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2253,9 +1662,9 @@
       <c r="C4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2266,7 +1675,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2277,8 +1686,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:5">
-      <c r="A7" s="11">
+    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2287,13 +1696,13 @@
       <c r="C7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:5">
-      <c r="A8" s="11">
+    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -2302,13 +1711,13 @@
       <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:5">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2317,15 +1726,15 @@
       <c r="C9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:4">
-      <c r="A10" s="11">
+    <row r="10" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2334,12 +1743,12 @@
       <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:4">
-      <c r="A11" s="11">
+    <row r="11" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2348,10 +1757,10 @@
       <c r="C11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" s="6" customFormat="1" spans="1:4">
-      <c r="A12" s="11">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2360,10 +1769,10 @@
       <c r="C12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:4">
-      <c r="A13" s="11">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -2372,10 +1781,10 @@
       <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" s="6" customFormat="1" spans="1:4">
-      <c r="A14" s="11">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -2384,10 +1793,10 @@
       <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" s="6" customFormat="1" spans="1:4">
-      <c r="A15" s="11">
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -2396,10 +1805,10 @@
       <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" s="6" customFormat="1" spans="1:5">
-      <c r="A16" s="11">
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2408,189 +1817,189 @@
       <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" s="6" customFormat="1" spans="1:4">
-      <c r="A18" s="11">
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" s="6" customFormat="1" spans="1:4">
-      <c r="A19" s="11">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" s="6" customFormat="1" spans="1:4">
-      <c r="A20" s="11">
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" s="6" customFormat="1" spans="1:4">
-      <c r="A21" s="11">
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="60" spans="1:4">
-      <c r="A23" s="11">
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="63.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="1:4">
-      <c r="A24" s="11">
+      <c r="D23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="37">
         <v>24</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="37" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="24" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" s="6" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A28" s="26">
+      <c r="D27" s="22"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
         <v>25</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" s="6" customFormat="1" spans="1:4">
-      <c r="A29" s="26">
+      <c r="D28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
         <v>26</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" s="6" customFormat="1" spans="1:4">
-      <c r="A30" s="26">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
         <v>27</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" s="6" customFormat="1" spans="1:4">
-      <c r="A31" s="26">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>28</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2598,28 +2007,27 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="E25:E27"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2636,8 +2044,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:3">
-      <c r="A2" s="11">
+    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2647,8 +2055,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:3">
-      <c r="A3" s="11">
+    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2659,28 +2067,27 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88333333333333" style="1"/>
-    <col min="2" max="2" width="12.775" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2697,7 +2104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2708,7 +2115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2719,7 +2126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2730,7 +2137,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2741,7 +2148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2752,7 +2159,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="1:3">
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2763,36 +2170,36 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="39" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2803,7 +2210,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2814,14 +2221,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:3">
-      <c r="A13" s="11">
+    <row r="13" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2829,29 +2236,28 @@
   <mergeCells count="1">
     <mergeCell ref="C8:C10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2878,8 +2284,9 @@
       <c r="C2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2890,7 +2297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2901,7 +2308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2909,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2920,7 +2327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2932,7 +2339,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2943,7 +2350,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2955,7 +2362,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2966,13 +2373,13 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/jeecg-kbb/docs/BUG清单.xlsx
+++ b/jeecg-kbb/docs/BUG清单.xlsx
@@ -1017,7 +1017,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1052,7 +1052,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2247,7 +2247,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2296,6 +2296,7 @@
       <c r="C3" t="s">
         <v>97</v>
       </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -2307,6 +2308,7 @@
       <c r="C4" t="s">
         <v>99</v>
       </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
